--- a/data/TC004.xlsx
+++ b/data/TC004.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -40,13 +40,22 @@
   </si>
   <si>
     <t>Babu</t>
+  </si>
+  <si>
+    <t>DemoCSR</t>
+  </si>
+  <si>
+    <t>Gopi</t>
+  </si>
+  <si>
+    <t>Qeagle - Ver2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +123,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -160,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,9 +209,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,6 +244,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -401,14 +420,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -416,7 +435,7 @@
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -442,6 +461,20 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -451,24 +484,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
